--- a/eclipse-workspace/keywordDriven/src/excelData/DemoFile.xlsx
+++ b/eclipse-workspace/keywordDriven/src/excelData/DemoFile.xlsx
@@ -11,84 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Step_ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Keyword</t>
   </si>
   <si>
-    <t>Login to Application</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Open browser</t>
-  </si>
-  <si>
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Navigate to URL</t>
-  </si>
-  <si>
     <t>navigate</t>
   </si>
   <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Enter Email</t>
-  </si>
-  <si>
     <t>enterEmail</t>
   </si>
   <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
     <t>enterPassword</t>
   </si>
   <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Click on Sign in button</t>
-  </si>
-  <si>
     <t>clickSignIn</t>
   </si>
   <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Click on Logout button</t>
-  </si>
-  <si>
     <t>logout</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Close browser</t>
   </si>
   <si>
     <t>closeBrowser</t>
@@ -350,100 +293,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
